--- a/Assignment_2/rinex.xlsx
+++ b/Assignment_2/rinex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tzuchiao/Desktop/GNSS/Assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DB2B58-66B7-5E43-A834-3CE7B792FE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BAF139-9FB1-A34E-A2A9-BB13992793C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PRN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,19 +49,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>af0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGD</t>
+    <t>af0 (1-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af1 (1-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af2 (1-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGD (7-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toe (4-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e (3-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_n (2-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0 (2-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w (5-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cus (3-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuc(3-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crs (2-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crc (5-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cis (4-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cic (4-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0 (5-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDOT (6-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ome_0 (4-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ome_dot (5-4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F64CB3-5644-0946-91D7-7A314BE0223B}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +519,53 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>24</v>
       </c>
@@ -479,8 +584,56 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="1">
+        <v>-9.3132257461499999E-10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>93600</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9.4392469618500008E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.0851701637299999E-9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.55021215301299997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.4090260292800001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.9572200775099999E-6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.5693089961999999E-6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>105.53125</v>
+      </c>
+      <c r="P2" s="1">
+        <v>237.0625</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.3038516044599999E-7</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1.6763806343100001E-7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>999059548</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.5044444000000001E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2.9538008689800002</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-7.9285445414200002E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>13</v>
       </c>
@@ -493,8 +646,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>8</v>
       </c>
@@ -507,8 +663,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>21</v>
       </c>
@@ -527,8 +686,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>29</v>
       </c>
@@ -541,11 +703,62 @@
       <c r="D6" s="1">
         <v>2.19515059143E-4</v>
       </c>
+      <c r="E6" s="1">
+        <v>5.4569682106400001E-12</v>
+      </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="1">
+        <v>-6.5192580223099998E-9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>93600</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.3280887920400004E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.0837415328E-9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.83672720117</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1.4611449026000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.1930546760600002E-6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-5.6270509958300001E-6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-111.9375</v>
+      </c>
+      <c r="P6" s="1">
+        <v>283.375</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-2.60770320892E-8</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.65775418282E-7</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.97701573041000001</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1.9572243833899999E-10</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1.30645165416</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-7.8496126821600003E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>26</v>
       </c>
@@ -564,8 +777,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>10</v>
       </c>
@@ -578,8 +794,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>17</v>
       </c>
@@ -598,8 +817,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>2</v>
       </c>
@@ -612,8 +834,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>28</v>
       </c>
@@ -626,8 +851,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>3</v>
       </c>
@@ -640,8 +868,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>27</v>
       </c>
@@ -653,6 +884,9 @@
       </c>
       <c r="F13">
         <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>93600</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_2/rinex.xlsx
+++ b/Assignment_2/rinex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tzuchiao/Desktop/GNSS/Assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BAF139-9FB1-A34E-A2A9-BB13992793C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9E661-EBC7-5E4A-9026-E4C45451EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22780" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PRN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>Ome_dot (5-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0695446184803-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,15 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F64CB3-5644-0946-91D7-7A314BE0223B}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,64 +517,67 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>24</v>
       </c>
@@ -576,64 +588,67 @@
         <v>25001256.67943</v>
       </c>
       <c r="D2" s="1">
+        <v>5153.5734214800004</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.0933727026000001E-6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2.9558577807600001E-12</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>-9.3132257461499999E-10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>93600</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>9.4392469618500008E-3</v>
       </c>
-      <c r="J2" s="1">
-        <v>4.0851701637299999E-9</v>
-      </c>
       <c r="K2" s="1">
-        <v>0.55021215301299997</v>
+        <v>4.1580303415099998E-9</v>
       </c>
       <c r="L2" s="1">
+        <v>-1.2344397252899999</v>
+      </c>
+      <c r="M2" s="1">
         <v>-1.4090260292800001</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>7.9572200775099999E-6</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>5.5693089961999999E-6</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>105.53125</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>237.0625</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1.3038516044599999E-7</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>-1.6763806343100001E-7</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>999059548</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1.5044444000000001E-2</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2.9538008689800002</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>-7.9285445414200002E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>13</v>
       </c>
@@ -643,14 +658,41 @@
       <c r="C3">
         <v>23106630.26943</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="1">
+        <v>5153.7267761200001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-3.1377188861399997E-5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.27373675443E-13</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>-1.1175870895399999E-8</v>
+      </c>
+      <c r="I3" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="J3" s="1">
+        <v>2.0039746304999998E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.9312351803E-9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.4471442681000002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.65401365747100004</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5.4836273193399999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>8</v>
       </c>
@@ -660,14 +702,41 @@
       <c r="C4">
         <v>20664230.285440002</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="1">
+        <v>5153.6799564399998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.7417653948100001E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-6.8212102632999999E-12</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>-4.1909515857699999E-9</v>
+      </c>
+      <c r="I4" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="J4" s="1">
+        <v>8.9561236090999995E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.2387479894400004E-9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.91518999333700002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.38068787451</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9.8310410976400002E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>21</v>
       </c>
@@ -678,19 +747,40 @@
         <v>24835459.14243</v>
       </c>
       <c r="D5" s="1">
+        <v>5153.7148265799997</v>
+      </c>
+      <c r="E5" s="1">
         <v>7.1696471422899997E-5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>5.6843418860799998E-13</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>-1.16415321827E-8</v>
+      </c>
+      <c r="I5" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="J5" s="1">
+        <v>8.2153873518100006E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.45411410316E-9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1.0548467904400001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.9483967149999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.9441815614699996E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>29</v>
       </c>
@@ -701,64 +791,67 @@
         <v>23250719.148430001</v>
       </c>
       <c r="D6" s="1">
+        <v>5153.7045249900002</v>
+      </c>
+      <c r="E6" s="1">
         <v>2.19515059143E-4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>5.4569682106400001E-12</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>-6.5192580223099998E-9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>93600</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>8.3280887920400004E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>4.0837415328E-9</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>2.83672720117</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>-1.4611449026000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>5.1930546760600002E-6</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>-5.6270509958300001E-6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-111.9375</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>283.375</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>-2.60770320892E-8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>1.65775418282E-7</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.97701573041000001</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>-1.9572243833899999E-10</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>-1.30645165416</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>-7.8496126821600003E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>26</v>
       </c>
@@ -769,19 +862,40 @@
         <v>24278147.404429998</v>
       </c>
       <c r="D7" s="1">
+        <v>5153.6390285500001</v>
+      </c>
+      <c r="E7" s="1">
         <v>4.3831998482300001E-4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>-1.09139364213E-11</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>-6.5192580223099998E-9</v>
+      </c>
+      <c r="I7" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="J7" s="1">
+        <v>1.4976381324200001E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.0851701637299999E-9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.55021215301299997</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.54801800411000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.3979456424699997E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>10</v>
       </c>
@@ -791,14 +905,41 @@
       <c r="C8">
         <v>21075046.643440001</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="1">
+        <v>5153.6500492100004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.8771424442499998E-5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.8212102633000001E-13</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>-2.3283064365399999E-9</v>
+      </c>
+      <c r="I8" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="J8" s="1">
+        <v>5.9057383332399996E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.2673206081699999E-9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.2679853737300002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.23456323445499999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.2277235984800001E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>17</v>
       </c>
@@ -809,19 +950,40 @@
         <v>23040156.09643</v>
       </c>
       <c r="D9" s="1">
+        <v>5153.5758037599999</v>
+      </c>
+      <c r="E9" s="1">
         <v>1.5826011076599999E-4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2.0804691303100001E-11</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" s="1">
+        <v>-1.39698386192E-9</v>
+      </c>
+      <c r="I9" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="J9" s="1">
+        <v>1.6244846163299999E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.2669634504399999E-9</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.38403321289100001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.8175595657299999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>7.0128589868500004E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2</v>
       </c>
@@ -831,14 +993,41 @@
       <c r="C10">
         <v>25021425.825429998</v>
       </c>
-      <c r="F10">
+      <c r="D10" s="1">
+        <v>5153.5713901500003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-2.6775104925000001E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-6.8212102632999999E-12</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" s="1">
+        <v>-1.86264514923E-9</v>
+      </c>
+      <c r="I10" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="J10" s="1">
+        <v>2.3320638574700001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5.2712909989999997E-9</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-2.1457989447500001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1.71339184983</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.6494027376199999E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>28</v>
       </c>
@@ -848,14 +1037,38 @@
       <c r="C11">
         <v>24944089.654429998</v>
       </c>
-      <c r="F11">
+      <c r="D11" s="1">
+        <v>5153.6891059899999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.75721943378E-5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.8189894035500001E-12</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" s="1">
+        <v>-1.0244548320800001E-8</v>
+      </c>
+      <c r="I11" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="J11" s="1">
+        <v>8.3366303006200005E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.6876952613199998E-9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.80048875564</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-2.42338921708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>3</v>
       </c>
@@ -865,14 +1078,41 @@
       <c r="C12">
         <v>24444981.725430001</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="1">
+        <v>5153.6639308900003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.2565471530000002E-5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" s="1">
+        <v>-4.1909515857699999E-9</v>
+      </c>
+      <c r="I12" s="1">
         <v>93600</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="J12" s="1">
+        <v>5.4125329479599998E-3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.3866529471500004E-9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.96605330989500005</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.55015662356899997</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7.5381249189399997E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>27</v>
       </c>
@@ -882,11 +1122,38 @@
       <c r="C13">
         <v>20946850.748440001</v>
       </c>
-      <c r="F13">
+      <c r="D13" s="1">
+        <v>5153.5892067000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.0430816635500002E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.6401996668400007E-12</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" s="1">
+        <v>-4.1909515857699999E-9</v>
+      </c>
+      <c r="I13" s="1">
         <v>93600</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.7946191830599999E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.4469709484800001E-9</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-2.0059428440699998</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-2.2082761411899998</v>
+      </c>
+      <c r="N13" s="1">
+        <v>9.1772526502600003E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_2/rinex.xlsx
+++ b/Assignment_2/rinex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tzuchiao/Desktop/GNSS/Assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9E661-EBC7-5E4A-9026-E4C45451EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AADA75E-06F5-2C45-B755-6785D34D11DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22780" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,109 +35,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>3.0695446184803-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqrt_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5-4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>PRN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>measeured ta (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pa (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af0 (1-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af1 (1-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af2 (1-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGD (7-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toe (4-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e (3-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_n (2-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0 (2-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w (5-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cus (3-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cuc(3-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crs (2-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crc (5-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cis (4-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cic (4-2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i0 (5-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDOT (6-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ome_0 (4-3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ome_dot (5-4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0695446184803-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqrt_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeaseuredT_a</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>a_f0</t>
+  </si>
+  <si>
+    <t>a_f1</t>
+  </si>
+  <si>
+    <t>a_f2</t>
+  </si>
+  <si>
+    <t>T_GD</t>
+  </si>
+  <si>
+    <t>t_oe</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>M_0</t>
+  </si>
+  <si>
+    <t>Cus</t>
+  </si>
+  <si>
+    <t>Cuc</t>
+  </si>
+  <si>
+    <t>Crs</t>
+  </si>
+  <si>
+    <t>Crc</t>
+  </si>
+  <si>
+    <t>Cis</t>
+  </si>
+  <si>
+    <t>Cic</t>
+  </si>
+  <si>
+    <t>i0</t>
+  </si>
+  <si>
+    <t>IDOT</t>
+  </si>
+  <si>
+    <t>Omega_0</t>
+  </si>
+  <si>
+    <t>Omega_dot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +218,20 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,12 +256,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,84 +583,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F64CB3-5644-0946-91D7-7A314BE0223B}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -636,10 +722,10 @@
         <v>-1.6763806343100001E-7</v>
       </c>
       <c r="T2" s="1">
-        <v>999059548</v>
+        <v>0.97199905954800003</v>
       </c>
       <c r="U2" s="1">
-        <v>1.5044444000000001E-2</v>
+        <v>-1.8215044444E-11</v>
       </c>
       <c r="V2" s="1">
         <v>2.9538008689800002</v>
@@ -691,6 +777,33 @@
       <c r="N3" s="1">
         <v>5.4836273193399999E-6</v>
       </c>
+      <c r="O3" s="1">
+        <v>-5.0459057092699999E-6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-94.71875</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>282.84375</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-2.421438694E-8</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-4.2840838432300001E-8</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.98168593691999995</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1.4893477515999999E-10</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1.2771639449700001</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-7.8292546913099998E-9</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
@@ -735,6 +848,33 @@
       <c r="N4" s="1">
         <v>9.8310410976400002E-6</v>
       </c>
+      <c r="O4" s="1">
+        <v>-2.4680048227299999E-6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-42.84375</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>193.875</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-2.79396772385E-8</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1.9744038581800001E-7</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.96433346975400003</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4.4501853680800001E-10</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-0.202900106187</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-7.80389649218E-9</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
@@ -779,6 +919,33 @@
       <c r="N5" s="1">
         <v>7.9441815614699996E-6</v>
       </c>
+      <c r="O5" s="1">
+        <v>5.2917748689699999E-6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>223.625</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1.3597309589399999E-7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-3.72529029846E-9</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.95531678733900005</v>
+      </c>
+      <c r="U5" s="1">
+        <v>7.5717439649600005E-11</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.9537074631200002</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-8.0167625017699997E-9</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
@@ -894,6 +1061,33 @@
       <c r="N7" s="1">
         <v>5.3979456424699997E-6</v>
       </c>
+      <c r="O7" s="1">
+        <v>-5.2005052566500004E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-103.5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>283.34375</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.6449561119099998E-7</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-2.421438694E-8</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.98006871316699995</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-2.6358240783700001E-10</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1.2742229193300001</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-8.0910513104800004E-9</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
@@ -938,6 +1132,33 @@
       <c r="N8" s="1">
         <v>2.2277235984800001E-6</v>
       </c>
+      <c r="O8" s="1">
+        <v>1.5906989574399999E-6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>349.625</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4.09781932831E-8</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1.71363353729E-7</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.98063631367899995</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6.2145445750099995E-11</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-2.3201260664699999</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-8.1264099261599999E-9</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
@@ -982,6 +1203,33 @@
       <c r="N9" s="1">
         <v>7.0128589868500004E-6</v>
       </c>
+      <c r="O9" s="1">
+        <v>5.3234398365E-6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100.34375</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>251</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.2479722499799999E-7</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.2538006305700001E-7</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.97076997722000002</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-3.9287350761600001E-12</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.0213772682600002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-8.1139094054699998E-9</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
@@ -1026,6 +1274,33 @@
       <c r="N10" s="1">
         <v>5.6494027376199999E-6</v>
       </c>
+      <c r="O10" s="1">
+        <v>9.1642141342199995E-7</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14.65625</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>249.25</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7.8231096267699997E-8</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3.6507844924900002E-7</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.93239636911400003</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3.9073056121099998E-10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.71375549846099995</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-7.9389021157100005E-9</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
@@ -1067,6 +1342,36 @@
       <c r="M11" s="1">
         <v>-2.42338921708</v>
       </c>
+      <c r="N11" s="1">
+        <v>6.7036598920800002E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4.2282044887500002E-7</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.15625</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>249.875</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1.11758708954E-7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-2.79396772385E-8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.95896056809999997</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.14294640518E-10</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.81814364769799997</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-7.8385407923999993E-9</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
@@ -1085,7 +1390,7 @@
         <v>8.2565471530000002E-5</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1110,6 +1415,33 @@
       </c>
       <c r="N12" s="1">
         <v>7.5381249189399997E-6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.3096799850500001E-7</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.125</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>216.625</v>
+      </c>
+      <c r="R12" s="1">
+        <v>6.1467289924599996E-8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-6.3329935073899999E-8</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.92842947802599995</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-4.4823295641600003E-10</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.78553870509</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-8.3710629740899995E-9</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1154,6 +1486,98 @@
       </c>
       <c r="N13" s="1">
         <v>9.1772526502600003E-6</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-2.8330832719800002E-6</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-50.78125</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>190.84375</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1.95577740669E-7</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.71363353729E-7</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.94869068861500006</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4.2180328408599999E-10</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-0.29100312304800002</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-7.6113884734499997E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_2/rinex.xlsx
+++ b/Assignment_2/rinex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tzuchiao/Desktop/GNSS/Assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AADA75E-06F5-2C45-B755-6785D34D11DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0C512-67CB-9744-9D5C-8FD82DD3DB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15920" xr2:uid="{3B1CFDC2-7FC8-FD46-908F-2CC22A536362}"/>
   </bookViews>
@@ -35,16 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>e</t>
   </si>
   <si>
     <t>w</t>
-  </si>
-  <si>
-    <t>3.0695446184803-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sqrt_A</t>
@@ -586,81 +582,81 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1389,8 +1385,8 @@
       <c r="E12" s="1">
         <v>8.2565471530000002E-5</v>
       </c>
-      <c r="F12" t="s">
-        <v>2</v>
+      <c r="F12" s="1">
+        <v>3.0695446184800002E-12</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1517,67 +1513,67 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>13</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>14</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>15</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>16</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>18</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>19</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>20</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>21</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>22</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>23</v>
-      </c>
-      <c r="W14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
